--- a/funcionarios_dependentes_formatado.xlsx
+++ b/funcionarios_dependentes_formatado.xlsx
@@ -499,15 +499,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>THIAGO LOPES</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>29527700850</v>
+          <t>Funcionário 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-01</t>
+        </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 200</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
@@ -524,15 +526,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Livia souza lopes</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>29527700850</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-01</t>
+        </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 200</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -540,8 +544,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>55392559840</v>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-101</t>
+        </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -550,7 +556,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Claudia costa souza lopes</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -567,15 +573,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>GABRIELLE FERNANDES RODRIGUES</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>44863760809</v>
+          <t>Funcionário 2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-02</t>
+        </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 201</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
@@ -592,15 +600,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Heloísa Rodrigues da Silva</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>44863760809</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-02</t>
+        </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 201</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -608,7 +618,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-107</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
           <t>18/08/2019</t>
@@ -616,7 +630,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Gabrielle Fernandes Rodrigues</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
@@ -633,15 +647,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>REBECA DA SILVA BATISTA NICULAU</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>41557430861</v>
+          <t>Funcionário 3</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-03</t>
+        </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 202</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr"/>
@@ -658,15 +674,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>MARIANA APARECIDA FAZZIOLLI</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>40356764893</v>
+          <t>Funcionário 4</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-04</t>
+        </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 203</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr"/>
@@ -683,15 +701,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Maria Aparecida Braga Fazziolli</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>40356764893</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-04</t>
+        </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 203</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -699,8 +719,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>25969873845</v>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-119</t>
+        </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -709,7 +731,7 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Maria Aparecida Braga Fazziolli</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
@@ -726,15 +748,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BRUNO RODRIGUES DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>35767392897</v>
+          <t>Funcionário 5</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-05</t>
+        </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 204</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
@@ -751,15 +775,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>ANALIA ALCANTARA ENGHI</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>43302479840</v>
+          <t>Funcionário 6</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-06</t>
+        </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 205</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
@@ -776,15 +802,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Donata Alcântara Enghi</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>43302479840</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-06</t>
+        </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 205</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -792,8 +820,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>4276599814</v>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-131</t>
+        </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
@@ -802,7 +832,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Analia Henrique dos Santos</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr"/>
@@ -815,15 +845,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>RAFAEL DE ALMEIDA</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>37070158823</v>
+          <t>Funcionário 7</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-07</t>
+        </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 206</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
@@ -840,15 +872,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>JENNIFER BIANCA OLIVEIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>44527513850</v>
+          <t>Funcionário 8</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-08</t>
+        </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 207</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
@@ -865,15 +899,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Johnny Firmino de Amaral </t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>44527513850</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-08</t>
+        </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 207</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -881,8 +917,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>90127835857</v>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-143</t>
+        </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
@@ -891,7 +929,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria das graças de Amaral </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -908,15 +946,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>IVAN MARCEL DE SOUZA PEREIRA</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>36188139880</v>
+          <t>Funcionário 9</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-09</t>
+        </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 208</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
@@ -933,15 +973,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>ALAIDE DA SILVA</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>14287228820</v>
+          <t>Funcionário 10</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-10</t>
+        </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 209</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr"/>
@@ -958,15 +1000,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>MURILO GUIMARAES RODRIGUES DA SILVA</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>44517566854</v>
+          <t>Funcionário 11</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-11</t>
+        </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 210</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
@@ -983,15 +1027,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>LEONILSON DOS SANTOS VIEIRA</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>2743987537</v>
+          <t>Funcionário 12</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-12</t>
+        </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 211</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
@@ -1008,15 +1054,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Marcia Brandão calda</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>2743987537</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-12</t>
+        </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 211</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1024,8 +1072,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
-        <v>31757530860</v>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-167</t>
+        </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
@@ -1034,7 +1084,7 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antonia Brandão </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
@@ -1051,15 +1101,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>IGOR MANOEL VIEIRA DE SOUSA</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>48598064840</v>
+          <t>Funcionário 13</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-13</t>
+        </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 212</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
@@ -1076,15 +1128,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>ELIANE ALVES MACEDO</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>26720835840</v>
+          <t>Funcionário 14</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-14</t>
+        </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 213</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
@@ -1101,15 +1155,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>LUIS JOSE TADEU MACEDO</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>26584213897</v>
+          <t>Funcionário 15</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-15</t>
+        </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 214</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
@@ -1126,15 +1182,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>WANDERSON DE SOUZA NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>28666999802</v>
+          <t>Funcionário 16</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-16</t>
+        </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 215</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
@@ -1151,15 +1209,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Monica Matosinhos de Paula</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>28666999802</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-16</t>
+        </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 215</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1167,8 +1227,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
-        <v>26930632805</v>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-191</t>
+        </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
@@ -1177,7 +1239,7 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>Ilhamar Matosinho de Paula</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
@@ -1194,15 +1256,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Guilherme de Paula Nascimento</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>28666999802</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-16</t>
+        </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 215</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1210,8 +1274,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>52581815884</v>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-192</t>
+        </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
@@ -1220,7 +1286,7 @@
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>Monica Matosinho de Paula</t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
@@ -1237,15 +1303,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>MARCELA ALMEIDA SILVA LARANGEIRA</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>54088859847</v>
+          <t>Funcionário 17</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-17</t>
+        </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 216</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
@@ -1262,15 +1330,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mayana Almeida Silva </t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>54088859847</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-17</t>
+        </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 216</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1278,8 +1348,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>54088883802</v>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-197</t>
+        </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
@@ -1288,7 +1360,7 @@
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Andréia Lúcia Almeida Silva </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
@@ -1305,15 +1377,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christian Alef Almeida Silva Andrade </t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>54088859847</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-17</t>
+        </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 216</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1321,8 +1395,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>50991677803</v>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-198</t>
+        </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
@@ -1331,7 +1407,7 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Andréia Lúcia Almeida Silva </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -1348,15 +1424,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>JENNIFER MILLENA SANTOS CORDEIRO</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>41105760839</v>
+          <t>Funcionário 18</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-18</t>
+        </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>BRONZE 10</t>
+          <t>Plano Exemplo 217</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
@@ -1373,15 +1451,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>ANA PAULA DA SILVA SANTOS</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>50982764898</v>
+          <t>Funcionário 19</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-19</t>
+        </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>OURO PREMIUM 10</t>
+          <t>Plano Exemplo 218</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
@@ -1398,15 +1478,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>MARCELO ANTONIO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>36263973862</v>
+          <t>Funcionário 20</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-20</t>
+        </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 219</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
@@ -1423,15 +1505,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rita De Cássia de Lima Januário </t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>36263973862</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-20</t>
+        </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 219</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1439,8 +1523,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>34527101811</v>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-215</t>
+        </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
@@ -1449,7 +1535,7 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>Marileide Gomes de lima</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -1466,15 +1552,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>ALICIA SILVA BRITO</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>39578144806</v>
+          <t>Funcionário 21</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-21</t>
+        </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 220</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
@@ -1491,15 +1579,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>ALEX DOS SANTOS PINHEIRO</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>29418230852</v>
+          <t>Funcionário 22</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-22</t>
+        </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 221</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr"/>
@@ -1516,15 +1606,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>ELTON FERREIRA DA SILVA</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>28350672803</v>
+          <t>Funcionário 23</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-23</t>
+        </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 222</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
@@ -1541,15 +1633,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alzira Barros salgado </t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>28350672803</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-23</t>
+        </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 222</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1557,8 +1651,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>29811332843</v>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-233</t>
+        </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
@@ -1567,7 +1663,7 @@
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alzira Barros salgado </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
@@ -1584,15 +1680,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Mariana Ribeiro Lucas Barbosa</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>41823003869</v>
+          <t>Funcionário 24</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-24</t>
+        </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 223</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr"/>
@@ -1609,15 +1707,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>KETHELYN SILVA BARBOSA</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>59929282866</v>
+          <t>Funcionário 25</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-25</t>
+        </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 224</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
@@ -1634,15 +1734,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>JOYCE HELOISA DIOGO NICULAU</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>51171020880</v>
+          <t>Funcionário 26</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-26</t>
+        </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 225</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
@@ -1659,15 +1761,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Luciano Niculau</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>51171020880</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-26</t>
+        </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 225</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1675,8 +1779,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>15281151800</v>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-251</t>
+        </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
@@ -1685,7 +1791,7 @@
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>Maria de Luiz Niculau</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr">
@@ -1702,15 +1808,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Julieta Diogo Niculau</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>51171020880</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-26</t>
+        </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 225</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -1718,8 +1826,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
-        <v>17532731880</v>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-252</t>
+        </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
@@ -1728,7 +1838,7 @@
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idalina Diogo </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
@@ -1745,15 +1855,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>LUIZ FELIPE JIMENEZ MENEZES</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>41434660826</v>
+          <t>Funcionário 27</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-27</t>
+        </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 226</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
@@ -1770,15 +1882,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jessica Rossi De Oliveira Menezes </t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>41434660826</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-27</t>
+        </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 226</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -1786,8 +1900,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
-        <v>37449848856</v>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-257</t>
+        </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
@@ -1796,7 +1912,7 @@
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgina Rossi Oliveira </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr">
@@ -1813,15 +1929,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pedro Henrique de Oliveira Menezes </t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>41434660826</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-27</t>
+        </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 226</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -1829,8 +1947,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
-        <v>58495476819</v>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-258</t>
+        </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
@@ -1839,7 +1959,7 @@
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jessica Rossi De Oliveira Menezes </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr">
@@ -1856,15 +1976,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>REINALDO AUGUSTO DE PAULA SANTOS</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>32190252857</v>
+          <t>Funcionário 28</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-28</t>
+        </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OURO 10 </t>
+          <t>Plano Exemplo 227</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
@@ -1881,15 +2003,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>ALESSANDRA ALVES DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>31106877802</v>
+          <t>Funcionário 29</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-29</t>
+        </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 228</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr"/>
@@ -1906,15 +2030,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Leonardo Antunes Alves dos Santos</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>31106877802</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-29</t>
+        </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 228</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -1922,8 +2048,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n">
-        <v>47663498810</v>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-269</t>
+        </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
@@ -1932,7 +2060,7 @@
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>Sandra Maria Figueiredo da Silva Alves</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H47" s="3" t="inlineStr">
@@ -1949,15 +2077,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>DAVI PINHEIRO BRITO DA SILVA</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>48940874803</v>
+          <t>Funcionário 30</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-30</t>
+        </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 229</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
@@ -1974,15 +2104,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>HILTON APARECIDO DE CARVALHO</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>28983956844</v>
+          <t>Funcionário 31</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-31</t>
+        </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 230</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
@@ -1999,15 +2131,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>SIMONE DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>15293639854</v>
+          <t>Funcionário 32</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-32</t>
+        </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>BRONZE 10</t>
+          <t>Plano Exemplo 231</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
@@ -2024,15 +2158,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>VANIA MOREIRA BRITO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>29602551860</v>
+          <t>Funcionário 33</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-33</t>
+        </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 232</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
@@ -2049,15 +2185,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Olívia Brito Araújo de Lima</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>29602551860</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-33</t>
+        </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 232</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2065,8 +2203,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n">
-        <v>47090997820</v>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-293</t>
+        </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
@@ -2075,7 +2215,7 @@
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>Vania Moreira Brito dos Santos</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr">
@@ -2092,15 +2232,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Eloísa Brito Araújo de Lima</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>29602551860</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-33</t>
+        </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 232</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -2108,8 +2250,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n">
-        <v>47091014855</v>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-294</t>
+        </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
@@ -2118,7 +2262,7 @@
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vânia Moreira Brito dos Santos </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr">
@@ -2135,15 +2279,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>MARIO BERTO CASTELLON</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>16517671811</v>
+          <t>Funcionário 34</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-34</t>
+        </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OURO 10 </t>
+          <t>Plano Exemplo 233</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
@@ -2160,15 +2306,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Andreia Silvestre Lopes Castellon</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>16517671811</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-34</t>
+        </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OURO 10 </t>
+          <t>Plano Exemplo 233</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -2176,8 +2324,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n">
-        <v>14420593890</v>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-299</t>
+        </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
@@ -2186,7 +2336,7 @@
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>Aparecida Silvestre</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr">
@@ -2203,15 +2353,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>EMANUEL JESUS BATISTA</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>52654547809</v>
+          <t>Funcionário 35</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-35</t>
+        </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 234</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
@@ -2228,15 +2380,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>FERNANDO JESUS BATISTA</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>25050352886</v>
+          <t>Funcionário 36</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-36</t>
+        </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 235</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
@@ -2253,15 +2407,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Silvana de Paula Meira batista</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>25050352886</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-36</t>
+        </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 235</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -2269,8 +2425,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n">
-        <v>27740271870</v>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-311</t>
+        </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
@@ -2279,7 +2437,7 @@
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>Adolfina Rosa de paula</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H58" s="3" t="inlineStr">
@@ -2296,15 +2454,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Fernando Jesus Batista junior</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>25050352886</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-36</t>
+        </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 235</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -2312,8 +2472,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n">
-        <v>52654581829</v>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-312</t>
+        </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
@@ -2322,7 +2484,7 @@
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>Silvana de Paula Meira batista</t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H59" s="3" t="inlineStr">
@@ -2339,15 +2501,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>MICHELE CAVALCANTE DINIZ</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>40294729828</v>
+          <t>Funcionário 37</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-37</t>
+        </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 236</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
@@ -2364,15 +2528,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ana Julia Cavalcante Reis </t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>40294729828</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-37</t>
+        </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 236</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -2380,8 +2546,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n">
-        <v>52839606844</v>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-317</t>
+        </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
@@ -2390,7 +2558,7 @@
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michele Cavalcante Diniz </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H61" s="3" t="inlineStr">
@@ -2407,15 +2575,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laura Alice Cavalcante Reis </t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>40294729828</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-37</t>
+        </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>BRONZE INTEGRAL DOC 10</t>
+          <t>Plano Exemplo 236</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -2423,8 +2593,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n">
-        <v>52727245858</v>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-318</t>
+        </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
@@ -2433,7 +2605,7 @@
       </c>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>Michele Cavalcante Diniz</t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H62" s="3" t="inlineStr">
@@ -2450,15 +2622,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>FLAVIA ALVES PEREIRA</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>29277695838</v>
+          <t>Funcionário 38</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-38</t>
+        </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 237</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr"/>
@@ -2475,15 +2649,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Eloy Siqueira de Paula Chagas</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>29277695838</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-38</t>
+        </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 237</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2491,8 +2667,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
-        <v>31120089875</v>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-323</t>
+        </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
@@ -2501,7 +2679,7 @@
       </c>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>MARCIA DA SILVA SIQUEIRA CHAGAS</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H64" s="3" t="inlineStr">
@@ -2518,15 +2696,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELOAH PEREIRA SIQUEIRA </t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>29277695838</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-38</t>
+        </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 237</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2534,8 +2714,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n">
-        <v>52688451871</v>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-324</t>
+        </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
@@ -2544,7 +2726,7 @@
       </c>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia Alves Pereira </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H65" s="3" t="inlineStr">
@@ -2561,15 +2743,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>FRANCIANE APARECIDA DE PAULA</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>48521274840</v>
+          <t>Funcionário 39</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-39</t>
+        </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 238</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
@@ -2586,15 +2770,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>RENATA APARECIDA DA COSTA PEROBA</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>34843685860</v>
+          <t>Funcionário 40</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-40</t>
+        </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 239</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
@@ -2611,15 +2797,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Kaique da Costa Peroba</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>34843685860</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-40</t>
+        </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 239</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -2627,8 +2815,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
-        <v>44139727837</v>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-335</t>
+        </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
@@ -2637,7 +2827,7 @@
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renata Aparecida da costa peroba </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
@@ -2654,15 +2844,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>MARCELO SILVA DAS NEVES</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>12988135819</v>
+          <t>Funcionário 41</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-41</t>
+        </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 240</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
@@ -2679,15 +2871,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Thayla vitória  das neves</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>12988135819</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-41</t>
+        </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 240</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -2695,8 +2889,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
-        <v>24354958899</v>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-341</t>
+        </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
@@ -2705,7 +2901,7 @@
       </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>TALITA DA Silva Neves</t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H70" s="3" t="inlineStr">
@@ -2722,15 +2918,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Talita da Siva Neves</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>12988135819</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-41</t>
+        </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZE INTEGRAL 10 </t>
+          <t>Plano Exemplo 240</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -2738,8 +2936,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
-        <v>35156517803</v>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-342</t>
+        </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
@@ -2748,7 +2948,7 @@
       </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>Maria Sueli da Silva De Freitas</t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H71" s="3" t="inlineStr">
@@ -2765,15 +2965,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>ROBSON LUIZ PINA</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="n">
-        <v>34528142899</v>
+          <t>Funcionário 42</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-42</t>
+        </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 241</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr"/>
@@ -2790,15 +2992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hially Vitalino da Silva </t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>34528142899</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-42</t>
+        </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>PRATA 10</t>
+          <t>Plano Exemplo 241</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -2806,8 +3010,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
-        <v>35835734808</v>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-347</t>
+        </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
@@ -2816,7 +3022,7 @@
       </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Edileusa Vitalino da Silva </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H73" s="3" t="inlineStr">
@@ -2833,15 +3039,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>ANTONIO RIBEIRO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="n">
-        <v>7204615883</v>
+          <t>Funcionário 43</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-43</t>
+        </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 242</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr"/>
@@ -2858,15 +3066,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>LUCIANO CORREIA DA SILVA</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>31403293856</v>
+          <t>Funcionário 44</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-44</t>
+        </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 243</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr"/>
@@ -2883,15 +3093,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karina Correia Freitas </t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="n">
-        <v>31403293856</v>
+          <t>Dependente 1</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-44</t>
+        </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 243</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -2899,8 +3111,10 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n">
-        <v>35020294829</v>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-359</t>
+        </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
@@ -2909,7 +3123,7 @@
       </c>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alice Alves de Freitas </t>
+          <t>Nome Mãe Dep 1</t>
         </is>
       </c>
       <c r="H76" s="3" t="inlineStr">
@@ -2926,15 +3140,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theo Correia Freitas </t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="n">
-        <v>31403293856</v>
+          <t>Dependente 2</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-44</t>
+        </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>BRONZE CLAREAR 10</t>
+          <t>Plano Exemplo 243</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2942,8 +3158,10 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E77" s="3" t="n">
-        <v>59050153844</v>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>000.000.000-360</t>
+        </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
@@ -2952,7 +3170,7 @@
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karina Correia Freitas </t>
+          <t>Nome Mãe Dep 2</t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
